--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema3d-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema3d-Nrp1.xlsx
@@ -546,10 +546,10 @@
         <v>3.174859</v>
       </c>
       <c r="I2">
-        <v>0.6553662741588026</v>
+        <v>0.5890554026108095</v>
       </c>
       <c r="J2">
-        <v>0.6553662741588027</v>
+        <v>0.5890554026108095</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N2">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O2">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P2">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q2">
-        <v>107.7243878540699</v>
+        <v>91.96022342134823</v>
       </c>
       <c r="R2">
-        <v>969.519490686629</v>
+        <v>827.642010792134</v>
       </c>
       <c r="S2">
-        <v>0.1838600432349852</v>
+        <v>0.1883679346067085</v>
       </c>
       <c r="T2">
-        <v>0.1838600432349852</v>
+        <v>0.1883679346067084</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>3.174859</v>
       </c>
       <c r="I3">
-        <v>0.6553662741588026</v>
+        <v>0.5890554026108095</v>
       </c>
       <c r="J3">
-        <v>0.6553662741588027</v>
+        <v>0.5890554026108095</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>163.038635</v>
       </c>
       <c r="O3">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P3">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q3">
         <v>57.51385307527389</v>
@@ -638,10 +638,10 @@
         <v>517.6246776774649</v>
       </c>
       <c r="S3">
-        <v>0.09816253982668545</v>
+        <v>0.1178092583075218</v>
       </c>
       <c r="T3">
-        <v>0.09816253982668546</v>
+        <v>0.1178092583075218</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>3.174859</v>
       </c>
       <c r="I4">
-        <v>0.6553662741588026</v>
+        <v>0.5890554026108095</v>
       </c>
       <c r="J4">
-        <v>0.6553662741588027</v>
+        <v>0.5890554026108095</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N4">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O4">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P4">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q4">
-        <v>129.3800365376035</v>
+        <v>64.4771704300101</v>
       </c>
       <c r="R4">
-        <v>1164.420328838432</v>
+        <v>580.294533870091</v>
       </c>
       <c r="S4">
-        <v>0.2208211119637292</v>
+        <v>0.1320726611062824</v>
       </c>
       <c r="T4">
-        <v>0.2208211119637292</v>
+        <v>0.1320726611062824</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>3.174859</v>
       </c>
       <c r="I5">
-        <v>0.6553662741588026</v>
+        <v>0.5890554026108095</v>
       </c>
       <c r="J5">
-        <v>0.6553662741588027</v>
+        <v>0.5890554026108095</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N5">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O5">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P5">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q5">
-        <v>9.847043901008888</v>
+        <v>8.264865265032775</v>
       </c>
       <c r="R5">
-        <v>88.62339510907999</v>
+        <v>74.38378738529498</v>
       </c>
       <c r="S5">
-        <v>0.01680657419774691</v>
+        <v>0.01692944560001511</v>
       </c>
       <c r="T5">
-        <v>0.01680657419774691</v>
+        <v>0.01692944560001511</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>3.174859</v>
       </c>
       <c r="I6">
-        <v>0.6553662741588026</v>
+        <v>0.5890554026108095</v>
       </c>
       <c r="J6">
-        <v>0.6553662741588027</v>
+        <v>0.5890554026108095</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N6">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O6">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P6">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q6">
-        <v>79.51658933859935</v>
+        <v>65.35760116216343</v>
       </c>
       <c r="R6">
-        <v>715.649304047394</v>
+        <v>588.2184104594709</v>
       </c>
       <c r="S6">
-        <v>0.1357160049356557</v>
+        <v>0.1338761029902817</v>
       </c>
       <c r="T6">
-        <v>0.1357160049356557</v>
+        <v>0.1338761029902817</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.556515</v>
+        <v>0.7382956666666667</v>
       </c>
       <c r="H7">
-        <v>1.669545</v>
+        <v>2.214887</v>
       </c>
       <c r="I7">
-        <v>0.3446337258411974</v>
+        <v>0.4109445973891905</v>
       </c>
       <c r="J7">
-        <v>0.3446337258411974</v>
+        <v>0.4109445973891905</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N7">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O7">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P7">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q7">
-        <v>56.64840962065499</v>
+        <v>64.15450367182912</v>
       </c>
       <c r="R7">
-        <v>509.835686585895</v>
+        <v>577.3905330464621</v>
       </c>
       <c r="S7">
-        <v>0.09668543260748065</v>
+        <v>0.1314117224031835</v>
       </c>
       <c r="T7">
-        <v>0.09668543260748066</v>
+        <v>0.1314117224031835</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.556515</v>
+        <v>0.7382956666666667</v>
       </c>
       <c r="H8">
-        <v>1.669545</v>
+        <v>2.214887</v>
       </c>
       <c r="I8">
-        <v>0.3446337258411974</v>
+        <v>0.4109445973891905</v>
       </c>
       <c r="J8">
-        <v>0.3446337258411974</v>
+        <v>0.4109445973891905</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>163.038635</v>
       </c>
       <c r="O8">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P8">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q8">
-        <v>30.244481985675</v>
+        <v>40.12357257324945</v>
       </c>
       <c r="R8">
-        <v>272.200337871075</v>
+        <v>361.112153159245</v>
       </c>
       <c r="S8">
-        <v>0.05162017511799534</v>
+        <v>0.08218764824043275</v>
       </c>
       <c r="T8">
-        <v>0.05162017511799535</v>
+        <v>0.08218764824043273</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.556515</v>
+        <v>0.7382956666666667</v>
       </c>
       <c r="H9">
-        <v>1.669545</v>
+        <v>2.214887</v>
       </c>
       <c r="I9">
-        <v>0.3446337258411974</v>
+        <v>0.4109445973891905</v>
       </c>
       <c r="J9">
-        <v>0.3446337258411974</v>
+        <v>0.4109445973891905</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N9">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O9">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P9">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q9">
-        <v>68.03634211823999</v>
+        <v>44.98141384616256</v>
       </c>
       <c r="R9">
-        <v>612.3270790641599</v>
+        <v>404.832724615463</v>
       </c>
       <c r="S9">
-        <v>0.1161219390761871</v>
+        <v>0.09213827138140956</v>
       </c>
       <c r="T9">
-        <v>0.1161219390761871</v>
+        <v>0.09213827138140956</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.556515</v>
+        <v>0.7382956666666667</v>
       </c>
       <c r="H10">
-        <v>1.669545</v>
+        <v>2.214887</v>
       </c>
       <c r="I10">
-        <v>0.3446337258411974</v>
+        <v>0.4109445973891905</v>
       </c>
       <c r="J10">
-        <v>0.3446337258411974</v>
+        <v>0.4109445973891905</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N10">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O10">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P10">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q10">
-        <v>5.1782088306</v>
+        <v>5.765844288603888</v>
       </c>
       <c r="R10">
-        <v>46.6038794754</v>
+        <v>51.892598597435</v>
       </c>
       <c r="S10">
-        <v>0.008837977346073438</v>
+        <v>0.01181054307504071</v>
       </c>
       <c r="T10">
-        <v>0.008837977346073439</v>
+        <v>0.01181054307504071</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.556515</v>
+        <v>0.7382956666666667</v>
       </c>
       <c r="H11">
-        <v>1.669545</v>
+        <v>2.214887</v>
       </c>
       <c r="I11">
-        <v>0.3446337258411974</v>
+        <v>0.4109445973891905</v>
       </c>
       <c r="J11">
-        <v>0.3446337258411974</v>
+        <v>0.4109445973891905</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N11">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O11">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P11">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q11">
-        <v>41.81493544983001</v>
+        <v>45.59563154308923</v>
       </c>
       <c r="R11">
-        <v>376.33441904847</v>
+        <v>410.360683887803</v>
       </c>
       <c r="S11">
-        <v>0.07136820169346084</v>
+        <v>0.09339641228912408</v>
       </c>
       <c r="T11">
-        <v>0.07136820169346084</v>
+        <v>0.09339641228912407</v>
       </c>
     </row>
   </sheetData>
